--- a/public/archivos/formatoReporteSolicitudValesV7.xlsx
+++ b/public/archivos/formatoReporteSolicitudValesV7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegolopez/Documents/GitProyect/vales/apivales/public/archivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CECC68E-AAFA-1D4C-9452-2F8CF5170A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57274753-06E9-9342-8B52-F58CC3989AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27840" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -634,6 +634,63 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1168400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{698BCC2D-5325-4D2B-A7BC-5984284BC995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1955800" y="114300"/>
+          <a:ext cx="2438400" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -903,7 +960,7 @@
   <dimension ref="A2:CR82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CP21" sqref="CP21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4188,5 +4245,6 @@
   <headerFooter>
     <oddFooter>&amp;R&amp;"Calibri,Normal"&amp;28&amp;K000000Página &amp;P de &amp;N</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>